--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s530473\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GDP\Project\Documentation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C930C989-2446-4391-B97D-36FFADE5B361}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{C44E7D91-EDC8-48E1-9530-79DC7E5796F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$203</definedName>
+  </definedNames>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,31 +28,628 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>asdfg</t>
-  </si>
-  <si>
-    <t>hjkld</t>
-  </si>
-  <si>
-    <t>aaasaa</t>
-  </si>
-  <si>
-    <t>qqwqwq</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="201">
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Almond</t>
+  </si>
+  <si>
+    <t>Anger</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Bounce</t>
+  </si>
+  <si>
+    <t>Bigger</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>Echo</t>
+  </si>
+  <si>
+    <t>Elvis</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Engage</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Fancy</t>
+  </si>
+  <si>
+    <t>Feline</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Ginger</t>
+  </si>
+  <si>
+    <t>Globe</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Hanger</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>Inkspot</t>
+  </si>
+  <si>
+    <t>Impulse</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Kilo</t>
+  </si>
+  <si>
+    <t>Kangaroo</t>
+  </si>
+  <si>
+    <t>Kennedy</t>
+  </si>
+  <si>
+    <t>Lemon</t>
+  </si>
+  <si>
+    <t>Lamp</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Mink</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Native</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Ogre</t>
+  </si>
+  <si>
+    <t>Papa</t>
+  </si>
+  <si>
+    <t>Pencil</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Quick</t>
+  </si>
+  <si>
+    <t>Quasar</t>
+  </si>
+  <si>
+    <t>Quest</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>Redwood</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>Singer</t>
+  </si>
+  <si>
+    <t>Twilight</t>
+  </si>
+  <si>
+    <t>Titanic</t>
+  </si>
+  <si>
+    <t>Tower</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Uniform</t>
+  </si>
+  <si>
+    <t>Ultimate</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>Vagrant</t>
+  </si>
+  <si>
+    <t>Velvet</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>Whiskey</t>
+  </si>
+  <si>
+    <t>Witch</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>Xray</t>
+  </si>
+  <si>
+    <t>Yankee</t>
+  </si>
+  <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Zulu</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zebra</t>
+  </si>
+  <si>
+    <t>CODEWORDS</t>
+  </si>
+  <si>
+    <t>Above</t>
+  </si>
+  <si>
+    <t>Abuse</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Acute</t>
+  </si>
+  <si>
+    <t>Admit</t>
+  </si>
+  <si>
+    <t>Adopt</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Coach</t>
+  </si>
+  <si>
+    <t>Coast</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Court</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>Doubt</t>
+  </si>
+  <si>
+    <t>Dozen</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Drawn</t>
+  </si>
+  <si>
+    <t>Dream</t>
+  </si>
+  <si>
+    <t>Dress</t>
+  </si>
+  <si>
+    <t>Drill</t>
+  </si>
+  <si>
+    <t>Drink</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Drove</t>
+  </si>
+  <si>
+    <t>Dying</t>
+  </si>
+  <si>
+    <t>Eager</t>
+  </si>
+  <si>
+    <t>Early</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Every</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Exist</t>
+  </si>
+  <si>
+    <t>Faith</t>
+  </si>
+  <si>
+    <t>Fault</t>
+  </si>
+  <si>
+    <t>Fiber</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Keyhole</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Lives</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Loose</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Lying</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Maker</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Novel</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Occur</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Offer</t>
+  </si>
+  <si>
+    <t>Often</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Ought</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Shock</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Shown</t>
+  </si>
+  <si>
+    <t>Sight</t>
+  </si>
+  <si>
+    <t>Since</t>
+  </si>
+  <si>
+    <t>Sixth</t>
+  </si>
+  <si>
+    <t>Sixty</t>
+  </si>
+  <si>
+    <t>Sized</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Smart</t>
+  </si>
+  <si>
+    <t>Smile</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>Still</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Stood</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Strip</t>
+  </si>
+  <si>
+    <t>Stuck</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Stuff</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Suite</t>
+  </si>
+  <si>
+    <t>Super</t>
+  </si>
+  <si>
+    <t>Would</t>
+  </si>
+  <si>
+    <t>Wound</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>Wrote</t>
+  </si>
+  <si>
+    <t>Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,8 +672,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,7 +714,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -119,7 +726,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -166,6 +773,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -201,6 +825,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -352,36 +993,1238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D24027-CC6D-4E26-90C5-75B1A3D97A26}">
+  <dimension ref="A1:B203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" s="3"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B130" s="3"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B132" s="3"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B136" s="3"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" s="3"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" s="3"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B156" s="2"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B160" s="3"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B172" s="2"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B177" s="3"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B178" s="3"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B179" s="3"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B180" s="3"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B181" s="3"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B182" s="3"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B183" s="3"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B184" s="3"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B185" s="3"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B186" s="3"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B187" s="3"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B188" s="3"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B189" s="3"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B190" s="3"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B196" s="3"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B197" s="3"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198" s="3"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B200" s="3"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B201" s="3"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B202" s="3"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B203" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s530473\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{92F2C0CF-4788-41C5-8C04-E16CE54BDFFF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,28 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
-    <t>Testcodeword1</t>
+    <t>S530742@nwmissouri.edu</t>
   </si>
   <si>
-    <t>Testcodeword2</t>
+    <t>Naveen</t>
   </si>
   <si>
-    <t>Testcodeword3</t>
+    <t>bob@bob.com</t>
   </si>
   <si>
-    <t>Testcodeword4</t>
+    <t>Bobby</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,13 +72,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -352,39 +359,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{A69636EC-9141-431B-A162-76D7F0BCF98A}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{A5608CC4-6539-45DE-B267-A9231AC86E92}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{B3C525BF-565F-467E-8A0F-6B6DFEF58D1A}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{BA7C9462-A822-4033-84F8-0BE9D7CDFA2F}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{8F5D6FB0-BE7D-414C-97CF-59430245277D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9AF54E4B-FE2D-4BE1-AD00-B551E9323176}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0BE19520-C3FE-4FCD-A6D2-5FFBB6DEA86C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,60 +20,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Abuse</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Acute</t>
+  </si>
+  <si>
+    <t>Admit</t>
+  </si>
+  <si>
+    <t>Adopt</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
   <si>
     <t>Africa</t>
   </si>
   <si>
+    <t>After</t>
+  </si>
+  <si>
     <t>Almond</t>
   </si>
   <si>
-    <t>Anger</t>
-  </si>
-  <si>
     <t>America</t>
   </si>
   <si>
-    <t>Bravo</t>
-  </si>
-  <si>
-    <t>Bank</t>
-  </si>
-  <si>
-    <t>Bounce</t>
-  </si>
-  <si>
-    <t>Bigger</t>
-  </si>
-  <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>Cancer</t>
-  </si>
-  <si>
-    <t>Chair</t>
-  </si>
-  <si>
-    <t>Center</t>
-  </si>
-  <si>
-    <t>Dagger</t>
-  </si>
-  <si>
-    <t>Desk</t>
-  </si>
-  <si>
-    <t>Dim</t>
+    <t>Across</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -100,8 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,90 +385,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
+    <row r="12" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0BE19520-C3FE-4FCD-A6D2-5FFBB6DEA86C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531495\Desktop\project\project-charter-template\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B35DE789-5DB1-43DF-927D-B0CEC67EAC69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{E53845C8-7213-4947-BA42-765E622B2AB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Student Table" sheetId="2" r:id="rId2"/>
+    <sheet name="CodeWord Table" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,46 +27,427 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Abuse</t>
-  </si>
-  <si>
-    <t>Actor</t>
-  </si>
-  <si>
-    <t>Acute</t>
-  </si>
-  <si>
-    <t>Admit</t>
-  </si>
-  <si>
-    <t>Adopt</t>
-  </si>
-  <si>
-    <t>Adult</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="138">
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>BRIAN</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>JAMES</t>
+  </si>
+  <si>
+    <t>MICHAEL</t>
+  </si>
+  <si>
+    <t>RONALD</t>
+  </si>
+  <si>
+    <t>KENNETH</t>
+  </si>
+  <si>
+    <t>GEORGE</t>
+  </si>
+  <si>
+    <t>ROBERT</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>ALAN</t>
+  </si>
+  <si>
+    <t>DEREK</t>
+  </si>
+  <si>
+    <t>RAYMOND</t>
+  </si>
+  <si>
+    <t>ANTHONY</t>
+  </si>
+  <si>
+    <t>ROY</t>
+  </si>
+  <si>
+    <t>DONALD</t>
+  </si>
+  <si>
+    <t>DENNIS</t>
+  </si>
+  <si>
+    <t>EDWARD</t>
+  </si>
+  <si>
+    <t>GORDON</t>
+  </si>
+  <si>
+    <t>TERENCE</t>
+  </si>
+  <si>
+    <t>JOSEPH</t>
+  </si>
+  <si>
+    <t>MARY</t>
+  </si>
+  <si>
+    <t>JEAN</t>
+  </si>
+  <si>
+    <t>ANN</t>
+  </si>
+  <si>
+    <t>SUSAN</t>
+  </si>
+  <si>
+    <t>JANET</t>
+  </si>
+  <si>
+    <t>MAUREEN</t>
+  </si>
+  <si>
+    <t>BARBARA</t>
+  </si>
+  <si>
+    <t>VALERIE</t>
+  </si>
+  <si>
+    <t>CAROL</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>PAULINE</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>JOAN</t>
+  </si>
+  <si>
+    <t>PAMELA</t>
+  </si>
+  <si>
+    <t>JENNIFER</t>
+  </si>
+  <si>
+    <t>KATHLEEN</t>
+  </si>
+  <si>
+    <t>ANNE</t>
+  </si>
+  <si>
+    <t>SHEILA</t>
+  </si>
+  <si>
+    <t>BRENDA</t>
+  </si>
+  <si>
+    <t>GILLIAN</t>
+  </si>
+  <si>
+    <t>LINDA</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Course ID</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Codeword</t>
+  </si>
+  <si>
+    <t>S531482</t>
+  </si>
+  <si>
+    <t>CSE1023</t>
+  </si>
+  <si>
+    <t>Whale_ Blue</t>
+  </si>
+  <si>
+    <t>S531483</t>
+  </si>
+  <si>
+    <t>CSE1024</t>
+  </si>
+  <si>
+    <t>JOHN</t>
+  </si>
+  <si>
+    <t>Shark_ whale</t>
+  </si>
+  <si>
+    <t>S531484</t>
+  </si>
+  <si>
+    <t>CSE1025</t>
+  </si>
+  <si>
+    <t>Elephant_ African</t>
+  </si>
+  <si>
+    <t>S531485</t>
+  </si>
+  <si>
+    <t>CSE1026</t>
+  </si>
+  <si>
+    <t>Elephant_ Indian</t>
+  </si>
+  <si>
+    <t>S531486</t>
+  </si>
+  <si>
+    <t>CSE1027</t>
+  </si>
+  <si>
+    <t>ARTHUR</t>
+  </si>
+  <si>
+    <t>Giraffe_ male</t>
+  </si>
+  <si>
+    <t>S531487</t>
+  </si>
+  <si>
+    <t>CSE1028</t>
+  </si>
+  <si>
+    <t>Mule</t>
+  </si>
+  <si>
+    <t>S531488</t>
+  </si>
+  <si>
+    <t>CSE1029</t>
+  </si>
+  <si>
+    <t>CHARLES</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>S531491</t>
+  </si>
+  <si>
+    <t>CSE1030</t>
+  </si>
+  <si>
+    <t>FREDERICK</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>S531492</t>
+  </si>
+  <si>
+    <t>CSE1031</t>
+  </si>
+  <si>
+    <t>ALBERT</t>
+  </si>
+  <si>
+    <t>S531493</t>
+  </si>
+  <si>
+    <t>CSE1032</t>
+  </si>
+  <si>
+    <t>ERNEST</t>
+  </si>
+  <si>
+    <t>Dolphin_ Bottlenose</t>
+  </si>
+  <si>
+    <t>S531494</t>
+  </si>
+  <si>
+    <t>CSE1033</t>
+  </si>
+  <si>
+    <t>ALFRED</t>
+  </si>
+  <si>
+    <t>Donkey</t>
+  </si>
+  <si>
+    <t>S531495</t>
+  </si>
+  <si>
+    <t>CSE1034</t>
+  </si>
+  <si>
+    <t>Tapir</t>
+  </si>
+  <si>
+    <t>S531496</t>
+  </si>
+  <si>
+    <t>CSE1035</t>
+  </si>
+  <si>
+    <t>Shark_ Hammerhead</t>
+  </si>
+  <si>
+    <t>S531497</t>
+  </si>
+  <si>
+    <t>CSE1036</t>
+  </si>
+  <si>
+    <t>HAROLD</t>
+  </si>
+  <si>
+    <t>Seal_ fur</t>
+  </si>
+  <si>
+    <t>S531498</t>
+  </si>
+  <si>
+    <t>CSE1037</t>
+  </si>
+  <si>
+    <t>Manatee</t>
+  </si>
+  <si>
+    <t>S531499</t>
+  </si>
+  <si>
+    <t>CSE1038</t>
+  </si>
+  <si>
+    <t>FRANK</t>
+  </si>
+  <si>
+    <t>Bear_ Grizzly</t>
+  </si>
+  <si>
+    <t>S531500</t>
+  </si>
+  <si>
+    <t>CSE1039</t>
+  </si>
+  <si>
+    <t>HENRY</t>
+  </si>
+  <si>
+    <t>Alligator_ American</t>
+  </si>
+  <si>
+    <t>S531501</t>
+  </si>
+  <si>
+    <t>CSE1040</t>
+  </si>
+  <si>
+    <t>HARRY</t>
+  </si>
+  <si>
+    <t>Sturgeon_ Atlantic</t>
+  </si>
+  <si>
+    <t>S531502</t>
+  </si>
+  <si>
+    <t>CSE1041</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>Lion</t>
   </si>
   <si>
     <t>Africa</t>
   </si>
   <si>
-    <t>After</t>
-  </si>
-  <si>
     <t>Almond</t>
   </si>
   <si>
+    <t>Anger</t>
+  </si>
+  <si>
     <t>America</t>
   </si>
   <si>
-    <t>Across</t>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Bounce</t>
+  </si>
+  <si>
+    <t>Bigger</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Echo</t>
+  </si>
+  <si>
+    <t>Zebras</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,17 +456,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="20"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Geneva"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,16 +501,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{1994ED31-50F6-49DC-8D20-F8F80ADBFAED}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -139,7 +553,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -151,7 +565,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -198,6 +612,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -233,6 +664,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -384,72 +832,889 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC81612-DDBD-4A45-AF10-94D886A6941E}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E3CDB8-F4EF-4525-9D6E-259421BD43A8}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="A1:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39C0C2B-960B-4D3A-91BF-FFE396B9EE21}">
+  <dimension ref="A1:A167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A17" sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
+    <row r="1" spans="1:1" ht="18.75">
+      <c r="A1" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18.75">
+      <c r="A2" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18.75">
+      <c r="A3" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18.75">
+      <c r="A4" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18.75">
+      <c r="A5" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18.75">
+      <c r="A6" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18.75">
+      <c r="A7" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18.75">
+      <c r="A8" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18.75">
+      <c r="A9" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18.75">
+      <c r="A10" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="18.75">
+      <c r="A11" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18.75">
+      <c r="A12" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="18.75">
+      <c r="A13" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="18.75">
+      <c r="A14" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="18.75">
+      <c r="A15" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="18.75">
+      <c r="A16" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18.75">
+      <c r="A17" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18.75">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="21" spans="1:1" ht="18.75">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="23" spans="1:1" ht="18.75">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="25" spans="1:1" ht="18.75">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="27" spans="1:1" ht="18.75">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="29" spans="1:1" ht="18.75">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="31" spans="1:1" ht="18.75">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="33" spans="1:1" ht="18.75">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="35" spans="1:1" ht="18.75">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="37" spans="1:1" ht="18.75">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="39" spans="1:1" ht="18.75">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="41" spans="1:1" ht="18.75">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="43" spans="1:1" ht="18.75">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="45" spans="1:1" ht="18.75">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="47" spans="1:1" ht="18.75">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="49" spans="1:1" ht="18.75">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="51" spans="1:1" ht="18.75">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="53" spans="1:1" ht="18.75">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="55" spans="1:1" ht="18.75">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="57" spans="1:1" ht="18.75">
+      <c r="A57" s="5"/>
+    </row>
+    <row r="59" spans="1:1" ht="18.75">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="61" spans="1:1" ht="18.75">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="63" spans="1:1" ht="18.75">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="65" spans="1:1" ht="18.75">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="67" spans="1:1" ht="18.75">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="69" spans="1:1" ht="18.75">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="71" spans="1:1" ht="18.75">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="73" spans="1:1" ht="18.75">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="75" spans="1:1" ht="18.75">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="77" spans="1:1" ht="18.75">
+      <c r="A77" s="5"/>
+    </row>
+    <row r="79" spans="1:1" ht="18.75">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="81" spans="1:1" ht="18.75">
+      <c r="A81" s="5"/>
+    </row>
+    <row r="83" spans="1:1" ht="18.75">
+      <c r="A83" s="5"/>
+    </row>
+    <row r="85" spans="1:1" ht="18.75">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="87" spans="1:1" ht="18.75">
+      <c r="A87" s="5"/>
+    </row>
+    <row r="89" spans="1:1" ht="18.75">
+      <c r="A89" s="5"/>
+    </row>
+    <row r="91" spans="1:1" ht="18.75">
+      <c r="A91" s="5"/>
+    </row>
+    <row r="93" spans="1:1" ht="18.75">
+      <c r="A93" s="5"/>
+    </row>
+    <row r="95" spans="1:1" ht="18.75">
+      <c r="A95" s="5"/>
+    </row>
+    <row r="97" spans="1:1" ht="18.75">
+      <c r="A97" s="5"/>
+    </row>
+    <row r="99" spans="1:1" ht="18.75">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="101" spans="1:1" ht="18.75">
+      <c r="A101" s="5"/>
+    </row>
+    <row r="103" spans="1:1" ht="18.75">
+      <c r="A103" s="5"/>
+    </row>
+    <row r="105" spans="1:1" ht="18.75">
+      <c r="A105" s="5"/>
+    </row>
+    <row r="107" spans="1:1" ht="18.75">
+      <c r="A107" s="5"/>
+    </row>
+    <row r="109" spans="1:1" ht="18.75">
+      <c r="A109" s="5"/>
+    </row>
+    <row r="111" spans="1:1" ht="18.75">
+      <c r="A111" s="5"/>
+    </row>
+    <row r="113" spans="1:1" ht="18.75">
+      <c r="A113" s="5"/>
+    </row>
+    <row r="115" spans="1:1" ht="18.75">
+      <c r="A115" s="5"/>
+    </row>
+    <row r="117" spans="1:1" ht="18.75">
+      <c r="A117" s="5"/>
+    </row>
+    <row r="119" spans="1:1" ht="18.75">
+      <c r="A119" s="5"/>
+    </row>
+    <row r="121" spans="1:1" ht="18.75">
+      <c r="A121" s="5"/>
+    </row>
+    <row r="123" spans="1:1" ht="18.75">
+      <c r="A123" s="5"/>
+    </row>
+    <row r="125" spans="1:1" ht="18.75">
+      <c r="A125" s="5"/>
+    </row>
+    <row r="127" spans="1:1" ht="18.75">
+      <c r="A127" s="5"/>
+    </row>
+    <row r="129" spans="1:1" ht="18.75">
+      <c r="A129" s="5"/>
+    </row>
+    <row r="131" spans="1:1" ht="18.75">
+      <c r="A131" s="5"/>
+    </row>
+    <row r="133" spans="1:1" ht="18.75">
+      <c r="A133" s="5"/>
+    </row>
+    <row r="135" spans="1:1" ht="18.75">
+      <c r="A135" s="5"/>
+    </row>
+    <row r="137" spans="1:1" ht="18.75">
+      <c r="A137" s="5"/>
+    </row>
+    <row r="139" spans="1:1" ht="18.75">
+      <c r="A139" s="5"/>
+    </row>
+    <row r="141" spans="1:1" ht="18.75">
+      <c r="A141" s="5"/>
+    </row>
+    <row r="143" spans="1:1" ht="18.75">
+      <c r="A143" s="5"/>
+    </row>
+    <row r="145" spans="1:1" ht="18.75">
+      <c r="A145" s="5"/>
+    </row>
+    <row r="147" spans="1:1" ht="18.75">
+      <c r="A147" s="5"/>
+    </row>
+    <row r="149" spans="1:1" ht="18.75">
+      <c r="A149" s="5"/>
+    </row>
+    <row r="151" spans="1:1" ht="18.75">
+      <c r="A151" s="5"/>
+    </row>
+    <row r="153" spans="1:1" ht="18.75">
+      <c r="A153" s="5"/>
+    </row>
+    <row r="155" spans="1:1" ht="18.75">
+      <c r="A155" s="5"/>
+    </row>
+    <row r="157" spans="1:1" ht="18.75">
+      <c r="A157" s="5"/>
+    </row>
+    <row r="159" spans="1:1" ht="18.75">
+      <c r="A159" s="5"/>
+    </row>
+    <row r="161" spans="1:1" ht="18.75">
+      <c r="A161" s="5"/>
+    </row>
+    <row r="163" spans="1:1" ht="18.75">
+      <c r="A163" s="5"/>
+    </row>
+    <row r="165" spans="1:1" ht="18.75">
+      <c r="A165" s="5"/>
+    </row>
+    <row r="167" spans="1:1" ht="18.75">
+      <c r="A167" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
